--- a/StepDriveCont/Project Outputs for SDC/SDC_BOM.xlsx
+++ b/StepDriveCont/Project Outputs for SDC/SDC_BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="248">
   <si>
     <t>Designator</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>C1, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C28, C31, C32, C33, C36, C37, C38, C39, C40, C41, C43, C46, C47, C48, C49, C50, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C66, C67, C70, C71, C79, C80, C81, C82, C86, C94, C96, C97</t>
-  </si>
-  <si>
     <t>C0603</t>
   </si>
   <si>
@@ -111,24 +108,12 @@
     <t>0.47uF</t>
   </si>
   <si>
-    <t>C88</t>
-  </si>
-  <si>
-    <t>C89</t>
-  </si>
-  <si>
     <t>4.7nF</t>
   </si>
   <si>
-    <t>C90</t>
-  </si>
-  <si>
     <t>130pF</t>
   </si>
   <si>
-    <t>C91</t>
-  </si>
-  <si>
     <t>8.2nF</t>
   </si>
   <si>
@@ -225,9 +210,6 @@
     <t>DD19</t>
   </si>
   <si>
-    <t>DD20</t>
-  </si>
-  <si>
     <t>DDA</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
     <t>XAL5050</t>
   </si>
   <si>
-    <t>L9</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
     <t>8k87</t>
   </si>
   <si>
-    <t>R56, R60, R63, R69</t>
-  </si>
-  <si>
     <t>10k2</t>
   </si>
   <si>
@@ -378,9 +354,6 @@
     <t>665k</t>
   </si>
   <si>
-    <t>R68</t>
-  </si>
-  <si>
     <t>9k31</t>
   </si>
   <si>
@@ -423,9 +396,6 @@
     <t>SOT23-6</t>
   </si>
   <si>
-    <t>VD15</t>
-  </si>
-  <si>
     <t>SMA-DO214</t>
   </si>
   <si>
@@ -457,9 +427,6 @@
   </si>
   <si>
     <t>0826-1X1T-23F</t>
-  </si>
-  <si>
-    <t>X4, X9, X10, X11, X12, X13</t>
   </si>
   <si>
     <t>DG141V-06P</t>
@@ -718,9 +685,6 @@
     <t>GCM32EL8EH106KA07L</t>
   </si>
   <si>
-    <t>C74, C75,C87</t>
-  </si>
-  <si>
     <t>GRM1885C1H5R6DA01D</t>
   </si>
   <si>
@@ -741,6 +705,69 @@
   </si>
   <si>
     <t>Part Number</t>
+  </si>
+  <si>
+    <t>X4, X9, X10, X11, X12, X13, X14</t>
+  </si>
+  <si>
+    <t>DD13</t>
+  </si>
+  <si>
+    <t>SOIC_16</t>
+  </si>
+  <si>
+    <t>Si8660BA-IS</t>
+  </si>
+  <si>
+    <t>VT1, VT2</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>IRLML2803</t>
+  </si>
+  <si>
+    <t>DD20,DD21</t>
+  </si>
+  <si>
+    <t>L9, L10</t>
+  </si>
+  <si>
+    <t>C74, C75,C87, C101</t>
+  </si>
+  <si>
+    <t>C88, C102</t>
+  </si>
+  <si>
+    <t>VD15, VD20</t>
+  </si>
+  <si>
+    <t>C89,C103</t>
+  </si>
+  <si>
+    <t>C90,C104</t>
+  </si>
+  <si>
+    <t>R68,R77</t>
+  </si>
+  <si>
+    <t>C1, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C28, C31, C32, C33, C36, C37, C38, C39, C40, C41, C43, C46, C47, C48, C49, C50, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C66, C67, C70, C71, C79, C80, C81, C82, C86, C94, C96, C97,C98,C99,C100</t>
+  </si>
+  <si>
+    <t>C91,C105</t>
+  </si>
+  <si>
+    <t>R56, R60, R63, R69, R78</t>
+  </si>
+  <si>
+    <t>R79</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF7500V</t>
   </si>
 </sst>
 </file>
@@ -748,7 +775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="000000"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1268,7 +1295,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1593,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,1247 +1651,1292 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>59</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>57</v>
+      <c r="E30" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>60</v>
+      <c r="E31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>206</v>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>204</v>
+      <c r="E35" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>203</v>
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>202</v>
+        <v>6</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>201</v>
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
-        <v>600</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>196</v>
+      <c r="D41" s="5">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1">
         <v>25</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="1">
         <v>6</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="D49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="1">
         <v>7</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D50" s="5">
         <v>33</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="E50" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1">
         <v>4</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D51" s="5">
         <v>51</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="E51" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="1">
         <v>7</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>186</v>
+      <c r="E52" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="5">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="5">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>100</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>167</v>
-      </c>
-      <c r="F68" t="s">
-        <v>168</v>
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1">
         <v>4</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>138</v>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>66012002111503</v>
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C75" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>159</v>
+      <c r="E76" s="4">
+        <v>66012002111503</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>158</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
-        <v>157</v>
+      <c r="E79" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
